--- a/result/membersx.xlsx
+++ b/result/membersx.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
   <si>
     <t>Name</t>
   </si>
@@ -450,6 +450,12 @@
   </si>
   <si>
     <t>NiKiTa</t>
+  </si>
+  <si>
+    <t>Artemis</t>
+  </si>
+  <si>
+    <t>zara</t>
   </si>
 </sst>
 </file>
@@ -1284,8 +1290,8 @@
   <dimension ref="A1:AV102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B97" sqref="B97"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1479,10 +1485,10 @@
       </c>
       <c r="C2" s="2">
         <f>D2/4000*100</f>
-        <v>2566.4249999999997</v>
+        <v>2566.4499999999998</v>
       </c>
       <c r="D2">
-        <v>102657</v>
+        <v>102658</v>
       </c>
       <c r="E2">
         <v>764</v>
@@ -1617,10 +1623,10 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C66" si="0">D3/4000*100</f>
-        <v>851.52499999999998</v>
+        <v>1047.7750000000001</v>
       </c>
       <c r="D3">
-        <v>34061</v>
+        <v>41911</v>
       </c>
       <c r="E3">
         <v>119</v>
@@ -1755,10 +1761,10 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>532.125</v>
+        <v>671.125</v>
       </c>
       <c r="D4">
-        <v>21285</v>
+        <v>26845</v>
       </c>
       <c r="E4">
         <v>554</v>
@@ -1893,10 +1899,10 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>458.5</v>
+        <v>624</v>
       </c>
       <c r="D5">
-        <v>18340</v>
+        <v>24960</v>
       </c>
       <c r="E5">
         <v>98</v>
@@ -2027,14 +2033,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>436.4</v>
+        <v>539.72499999999991</v>
       </c>
       <c r="D6">
-        <v>17456</v>
+        <v>21589</v>
       </c>
       <c r="E6">
         <v>94</v>
@@ -2165,14 +2171,14 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>412.65</v>
+        <v>467.25000000000006</v>
       </c>
       <c r="D7">
-        <v>16506</v>
+        <v>18690</v>
       </c>
       <c r="E7">
         <v>135</v>
@@ -2303,14 +2309,14 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>375.875</v>
+        <v>444.87500000000006</v>
       </c>
       <c r="D8">
-        <v>15035</v>
+        <v>17795</v>
       </c>
       <c r="E8">
         <v>79</v>
@@ -2441,14 +2447,14 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>360.07499999999999</v>
+        <v>441.27499999999998</v>
       </c>
       <c r="D9">
-        <v>14403</v>
+        <v>17651</v>
       </c>
       <c r="E9">
         <v>97</v>
@@ -2579,14 +2585,14 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>353.85</v>
+        <v>439.02499999999998</v>
       </c>
       <c r="D10">
-        <v>14154</v>
+        <v>17561</v>
       </c>
       <c r="E10">
         <v>129</v>
@@ -2717,14 +2723,14 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>323.25</v>
+        <v>434.52499999999998</v>
       </c>
       <c r="D11">
-        <v>12930</v>
+        <v>17381</v>
       </c>
       <c r="E11">
         <v>71</v>
@@ -2855,14 +2861,14 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>313.27500000000003</v>
+        <v>372.22499999999997</v>
       </c>
       <c r="D12">
-        <v>12531</v>
+        <v>14889</v>
       </c>
       <c r="E12">
         <v>89</v>
@@ -2993,14 +2999,14 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>295.25</v>
+        <v>351.25</v>
       </c>
       <c r="D13">
-        <v>11810</v>
+        <v>14050</v>
       </c>
       <c r="E13">
         <v>140</v>
@@ -3135,10 +3141,10 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>289.375</v>
+        <v>322.375</v>
       </c>
       <c r="D14">
-        <v>11575</v>
+        <v>12895</v>
       </c>
       <c r="E14">
         <v>603</v>
@@ -3269,14 +3275,14 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>272.375</v>
+        <v>306.57499999999999</v>
       </c>
       <c r="D15">
-        <v>10895</v>
+        <v>12263</v>
       </c>
       <c r="E15">
         <v>45</v>
@@ -3407,14 +3413,14 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
-        <v>270.02499999999998</v>
+        <v>300.5</v>
       </c>
       <c r="D16">
-        <v>10801</v>
+        <v>12020</v>
       </c>
       <c r="E16">
         <v>154</v>
@@ -3545,14 +3551,14 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>268.875</v>
+        <v>299.25</v>
       </c>
       <c r="D17">
-        <v>10755</v>
+        <v>11970</v>
       </c>
       <c r="E17">
         <v>82</v>
@@ -3683,14 +3689,14 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="D18">
-        <v>10680</v>
+        <v>11880</v>
       </c>
       <c r="E18">
         <v>80</v>
@@ -3821,14 +3827,14 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="0"/>
-        <v>266.5</v>
+        <v>296.22500000000002</v>
       </c>
       <c r="D19">
-        <v>10660</v>
+        <v>11849</v>
       </c>
       <c r="E19">
         <v>58</v>
@@ -3959,14 +3965,14 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="0"/>
-        <v>256.34999999999997</v>
+        <v>295.875</v>
       </c>
       <c r="D20">
-        <v>10254</v>
+        <v>11835</v>
       </c>
       <c r="E20">
         <v>146</v>
@@ -4097,14 +4103,14 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
-        <v>230.50000000000003</v>
+        <v>285.875</v>
       </c>
       <c r="D21">
-        <v>9220</v>
+        <v>11435</v>
       </c>
       <c r="E21">
         <v>133</v>
@@ -4235,14 +4241,14 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
-        <v>228.57500000000002</v>
+        <v>265.07499999999999</v>
       </c>
       <c r="D22">
-        <v>9143</v>
+        <v>10603</v>
       </c>
       <c r="E22">
         <v>124</v>
@@ -4373,14 +4379,14 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
-        <v>219.72499999999999</v>
+        <v>264.125</v>
       </c>
       <c r="D23">
-        <v>8789</v>
+        <v>10565</v>
       </c>
       <c r="E23">
         <v>65</v>
@@ -4511,14 +4517,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
-        <v>208.12499999999997</v>
+        <v>233.55</v>
       </c>
       <c r="D24">
-        <v>8325</v>
+        <v>9342</v>
       </c>
       <c r="E24">
         <v>41</v>
@@ -4649,14 +4655,14 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="0"/>
-        <v>205.125</v>
+        <v>229.85000000000002</v>
       </c>
       <c r="D25">
-        <v>8205</v>
+        <v>9194</v>
       </c>
       <c r="E25">
         <v>42</v>
@@ -4791,10 +4797,10 @@
       </c>
       <c r="C26" s="2">
         <f t="shared" si="0"/>
-        <v>204.82499999999999</v>
+        <v>229.17499999999998</v>
       </c>
       <c r="D26">
-        <v>8193</v>
+        <v>9167</v>
       </c>
       <c r="E26">
         <v>171</v>
@@ -4925,14 +4931,14 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="0"/>
-        <v>201.39999999999998</v>
+        <v>228.87499999999997</v>
       </c>
       <c r="D27">
-        <v>8056</v>
+        <v>9155</v>
       </c>
       <c r="E27">
         <v>48</v>
@@ -5063,14 +5069,14 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="0"/>
-        <v>200.57499999999999</v>
+        <v>228.65000000000003</v>
       </c>
       <c r="D28">
-        <v>8023</v>
+        <v>9146</v>
       </c>
       <c r="E28">
         <v>84</v>
@@ -5201,14 +5207,14 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="0"/>
-        <v>199.25</v>
+        <v>219.74999999999997</v>
       </c>
       <c r="D29">
-        <v>7970</v>
+        <v>8790</v>
       </c>
       <c r="E29">
         <v>143</v>
@@ -5339,14 +5345,14 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="0"/>
-        <v>195.875</v>
+        <v>216</v>
       </c>
       <c r="D30">
-        <v>7835</v>
+        <v>8640</v>
       </c>
       <c r="E30">
         <v>68</v>
@@ -5481,10 +5487,10 @@
       </c>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
-        <v>192.32499999999999</v>
+        <v>209.72499999999999</v>
       </c>
       <c r="D31">
-        <v>7693</v>
+        <v>8389</v>
       </c>
       <c r="E31">
         <v>123</v>
@@ -5615,14 +5621,14 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
-        <v>191</v>
+        <v>208.12499999999997</v>
       </c>
       <c r="D32">
-        <v>7640</v>
+        <v>8325</v>
       </c>
       <c r="E32">
         <v>41</v>
@@ -5753,14 +5759,14 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
-        <v>188.39999999999998</v>
+        <v>207.625</v>
       </c>
       <c r="D33">
-        <v>7536</v>
+        <v>8305</v>
       </c>
       <c r="E33">
         <v>45</v>
@@ -5891,14 +5897,14 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="0"/>
-        <v>188.17500000000001</v>
+        <v>205.125</v>
       </c>
       <c r="D34">
-        <v>7527</v>
+        <v>8205</v>
       </c>
       <c r="E34">
         <v>125</v>
@@ -6029,14 +6035,14 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="0"/>
-        <v>182.25</v>
+        <v>202.15</v>
       </c>
       <c r="D35">
-        <v>7290</v>
+        <v>8086</v>
       </c>
       <c r="E35">
         <v>70</v>
@@ -6167,14 +6173,14 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="0"/>
-        <v>179.77500000000001</v>
+        <v>191</v>
       </c>
       <c r="D36">
-        <v>7191</v>
+        <v>7640</v>
       </c>
       <c r="E36">
         <v>55</v>
@@ -6305,14 +6311,14 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="0"/>
-        <v>178.25</v>
+        <v>187.85</v>
       </c>
       <c r="D37">
-        <v>7130</v>
+        <v>7514</v>
       </c>
       <c r="E37">
         <v>116</v>
@@ -6443,14 +6449,14 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="0"/>
-        <v>176.55</v>
+        <v>187.57499999999999</v>
       </c>
       <c r="D38">
-        <v>7062</v>
+        <v>7503</v>
       </c>
       <c r="E38">
         <v>94</v>
@@ -6581,14 +6587,14 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" si="0"/>
-        <v>174.75</v>
+        <v>186.22499999999999</v>
       </c>
       <c r="D39">
-        <v>6990</v>
+        <v>7449</v>
       </c>
       <c r="E39">
         <v>63</v>
@@ -6719,14 +6725,14 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C40" s="2">
         <f t="shared" si="0"/>
-        <v>170.95</v>
+        <v>184.22499999999999</v>
       </c>
       <c r="D40">
-        <v>6838</v>
+        <v>7369</v>
       </c>
       <c r="E40">
         <v>82</v>
@@ -6857,14 +6863,14 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="C41" s="2">
         <f t="shared" si="0"/>
-        <v>170.57500000000002</v>
+        <v>178.02500000000001</v>
       </c>
       <c r="D41">
-        <v>6823</v>
+        <v>7121</v>
       </c>
       <c r="E41">
         <v>143</v>
@@ -6995,14 +7001,14 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C42" s="2">
         <f t="shared" si="0"/>
-        <v>166.25</v>
+        <v>176.55</v>
       </c>
       <c r="D42">
-        <v>6650</v>
+        <v>7062</v>
       </c>
       <c r="E42">
         <v>61</v>
@@ -7133,14 +7139,14 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C43" s="2">
         <f t="shared" si="0"/>
-        <v>166.2</v>
+        <v>175.875</v>
       </c>
       <c r="D43">
-        <v>6648</v>
+        <v>7035</v>
       </c>
       <c r="E43">
         <v>61</v>
@@ -7271,14 +7277,14 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" si="0"/>
-        <v>163.47499999999999</v>
+        <v>167.15</v>
       </c>
       <c r="D44">
-        <v>6539</v>
+        <v>6686</v>
       </c>
       <c r="E44">
         <v>153</v>
@@ -7409,14 +7415,14 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2">
         <f t="shared" si="0"/>
-        <v>163.27500000000001</v>
+        <v>165.625</v>
       </c>
       <c r="D45">
-        <v>6531</v>
+        <v>6625</v>
       </c>
       <c r="E45">
         <v>72</v>
@@ -7547,14 +7553,14 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C46" s="2">
         <f t="shared" si="0"/>
-        <v>162.5</v>
+        <v>163.27500000000001</v>
       </c>
       <c r="D46">
-        <v>6500</v>
+        <v>6531</v>
       </c>
       <c r="E46">
         <v>114</v>
@@ -7685,14 +7691,14 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C47" s="2">
         <f t="shared" si="0"/>
-        <v>161.65</v>
+        <v>159.25</v>
       </c>
       <c r="D47">
-        <v>6466</v>
+        <v>6370</v>
       </c>
       <c r="E47">
         <v>40</v>
@@ -7823,14 +7829,14 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C48" s="2">
         <f t="shared" si="0"/>
-        <v>145.875</v>
+        <v>155.9</v>
       </c>
       <c r="D48">
-        <v>5835</v>
+        <v>6236</v>
       </c>
       <c r="E48">
         <v>27</v>
@@ -7961,14 +7967,14 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="C49" s="2">
         <f t="shared" si="0"/>
-        <v>144.67500000000001</v>
+        <v>154.375</v>
       </c>
       <c r="D49">
-        <v>5787</v>
+        <v>6175</v>
       </c>
       <c r="E49">
         <v>38</v>
@@ -8099,14 +8105,14 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C50" s="2">
         <f t="shared" si="0"/>
-        <v>144.5</v>
+        <v>153.27500000000001</v>
       </c>
       <c r="D50">
-        <v>5780</v>
+        <v>6131</v>
       </c>
       <c r="E50">
         <v>100</v>
@@ -8237,14 +8243,14 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="C51" s="2">
         <f t="shared" si="0"/>
-        <v>143.125</v>
+        <v>150.92500000000001</v>
       </c>
       <c r="D51">
-        <v>5725</v>
+        <v>6037</v>
       </c>
       <c r="E51">
         <v>32</v>
@@ -8375,14 +8381,14 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="C52" s="2">
         <f t="shared" si="0"/>
-        <v>138.15</v>
+        <v>150.75</v>
       </c>
       <c r="D52">
-        <v>5526</v>
+        <v>6030</v>
       </c>
       <c r="E52">
         <v>32</v>
@@ -8513,14 +8519,14 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C53" s="2">
         <f t="shared" si="0"/>
-        <v>136.47499999999999</v>
+        <v>148.75</v>
       </c>
       <c r="D53">
-        <v>5459</v>
+        <v>5950</v>
       </c>
       <c r="E53">
         <v>179</v>
@@ -8655,10 +8661,10 @@
       </c>
       <c r="C54" s="2">
         <f t="shared" si="0"/>
-        <v>136.25</v>
+        <v>147.25</v>
       </c>
       <c r="D54">
-        <v>5450</v>
+        <v>5890</v>
       </c>
       <c r="E54">
         <v>54</v>
@@ -8789,14 +8795,14 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="C55" s="2">
         <f t="shared" si="0"/>
-        <v>131.875</v>
+        <v>146.5</v>
       </c>
       <c r="D55">
-        <v>5275</v>
+        <v>5860</v>
       </c>
       <c r="E55">
         <v>105</v>
@@ -8927,14 +8933,14 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C56" s="2">
         <f t="shared" si="0"/>
-        <v>130.125</v>
+        <v>144.4</v>
       </c>
       <c r="D56">
-        <v>5205</v>
+        <v>5776</v>
       </c>
       <c r="E56">
         <v>57</v>
@@ -9065,14 +9071,14 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="C57" s="2">
         <f t="shared" si="0"/>
-        <v>129.27500000000001</v>
+        <v>143.125</v>
       </c>
       <c r="D57">
-        <v>5171</v>
+        <v>5725</v>
       </c>
       <c r="E57">
         <v>184</v>
@@ -9203,14 +9209,14 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C58" s="2">
         <f t="shared" si="0"/>
-        <v>125.75</v>
+        <v>142.97499999999999</v>
       </c>
       <c r="D58">
-        <v>5030</v>
+        <v>5719</v>
       </c>
       <c r="E58">
         <v>129</v>
@@ -9341,14 +9347,14 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2">
         <f t="shared" si="0"/>
-        <v>125.35000000000001</v>
+        <v>139.42500000000001</v>
       </c>
       <c r="D59">
-        <v>5014</v>
+        <v>5577</v>
       </c>
       <c r="E59">
         <v>95</v>
@@ -9479,14 +9485,14 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="C60" s="2">
         <f t="shared" si="0"/>
-        <v>125.15</v>
+        <v>138.6</v>
       </c>
       <c r="D60">
-        <v>5006</v>
+        <v>5544</v>
       </c>
       <c r="E60">
         <v>130</v>
@@ -9617,14 +9623,14 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2">
         <f t="shared" si="0"/>
-        <v>124.75</v>
+        <v>137.75</v>
       </c>
       <c r="D61">
-        <v>4990</v>
+        <v>5510</v>
       </c>
       <c r="E61">
         <v>87</v>
@@ -9755,14 +9761,14 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="C62" s="2">
         <f t="shared" si="0"/>
-        <v>124.125</v>
+        <v>136.52500000000001</v>
       </c>
       <c r="D62">
-        <v>4965</v>
+        <v>5461</v>
       </c>
       <c r="E62">
         <v>54</v>
@@ -9893,14 +9899,14 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>135.625</v>
       </c>
       <c r="D63">
-        <v>4960</v>
+        <v>5425</v>
       </c>
       <c r="E63">
         <v>51</v>
@@ -10031,14 +10037,14 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="C64" s="2">
         <f t="shared" si="0"/>
-        <v>122.50000000000001</v>
+        <v>132.875</v>
       </c>
       <c r="D64">
-        <v>4900</v>
+        <v>5315</v>
       </c>
       <c r="E64">
         <v>47</v>
@@ -10169,14 +10175,14 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="C65" s="2">
         <f t="shared" si="0"/>
-        <v>122.125</v>
+        <v>132.27500000000001</v>
       </c>
       <c r="D65">
-        <v>4885</v>
+        <v>5291</v>
       </c>
       <c r="E65">
         <v>60</v>
@@ -10307,14 +10313,14 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2">
         <f t="shared" si="0"/>
-        <v>118.39999999999999</v>
+        <v>131.875</v>
       </c>
       <c r="D66">
-        <v>4736</v>
+        <v>5275</v>
       </c>
       <c r="E66">
         <v>66</v>
@@ -10445,14 +10451,14 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="C67" s="2">
         <f t="shared" ref="C67:C101" si="1">D67/4000*100</f>
-        <v>117.75</v>
+        <v>129.875</v>
       </c>
       <c r="D67">
-        <v>4710</v>
+        <v>5195</v>
       </c>
       <c r="E67">
         <v>69</v>
@@ -10583,14 +10589,14 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="C68" s="2">
         <f t="shared" si="1"/>
-        <v>113.5</v>
+        <v>129.27500000000001</v>
       </c>
       <c r="D68">
-        <v>4540</v>
+        <v>5171</v>
       </c>
       <c r="E68">
         <v>78</v>
@@ -10721,14 +10727,14 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C69" s="2">
         <f t="shared" si="1"/>
-        <v>113.27499999999999</v>
+        <v>129.02499999999998</v>
       </c>
       <c r="D69">
-        <v>4531</v>
+        <v>5161</v>
       </c>
       <c r="E69">
         <v>68</v>
@@ -10859,14 +10865,14 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C70" s="2">
         <f t="shared" si="1"/>
-        <v>113.02499999999999</v>
+        <v>128.6</v>
       </c>
       <c r="D70">
-        <v>4521</v>
+        <v>5144</v>
       </c>
       <c r="E70">
         <v>76</v>
@@ -10997,14 +11003,14 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="C71" s="2">
         <f t="shared" si="1"/>
-        <v>111.625</v>
+        <v>128.125</v>
       </c>
       <c r="D71">
-        <v>4465</v>
+        <v>5125</v>
       </c>
       <c r="E71">
         <v>99</v>
@@ -11135,14 +11141,14 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C72" s="2">
         <f t="shared" si="1"/>
-        <v>110.575</v>
+        <v>127.125</v>
       </c>
       <c r="D72">
-        <v>4423</v>
+        <v>5085</v>
       </c>
       <c r="E72">
         <v>56</v>
@@ -11273,14 +11279,14 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2">
         <f t="shared" si="1"/>
-        <v>107.45</v>
+        <v>125.37499999999999</v>
       </c>
       <c r="D73">
-        <v>4298</v>
+        <v>5015</v>
       </c>
       <c r="E73">
         <v>103</v>
@@ -11411,14 +11417,14 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C74" s="2">
         <f t="shared" si="1"/>
-        <v>106.65</v>
+        <v>125.05</v>
       </c>
       <c r="D74">
-        <v>4266</v>
+        <v>5002</v>
       </c>
       <c r="E74">
         <v>60</v>
@@ -11549,14 +11555,14 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="C75" s="2">
         <f t="shared" si="1"/>
-        <v>102.89999999999999</v>
+        <v>124.325</v>
       </c>
       <c r="D75">
-        <v>4116</v>
+        <v>4973</v>
       </c>
       <c r="E75">
         <v>122</v>
@@ -11687,14 +11693,14 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C76" s="2">
         <f t="shared" si="1"/>
-        <v>102.49999999999999</v>
+        <v>121.7</v>
       </c>
       <c r="D76">
-        <v>4100</v>
+        <v>4868</v>
       </c>
       <c r="E76">
         <v>55</v>
@@ -11825,14 +11831,14 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C77" s="2">
         <f t="shared" si="1"/>
-        <v>102.27500000000001</v>
+        <v>119.64999999999999</v>
       </c>
       <c r="D77">
-        <v>4091</v>
+        <v>4786</v>
       </c>
       <c r="E77">
         <v>28</v>
@@ -11963,14 +11969,14 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="C78" s="2">
         <f t="shared" si="1"/>
-        <v>101.69999999999999</v>
+        <v>118.575</v>
       </c>
       <c r="D78">
-        <v>4068</v>
+        <v>4743</v>
       </c>
       <c r="E78">
         <v>50</v>
@@ -12101,14 +12107,14 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2">
         <f t="shared" si="1"/>
-        <v>100.925</v>
+        <v>116.45</v>
       </c>
       <c r="D79">
-        <v>4037</v>
+        <v>4658</v>
       </c>
       <c r="E79">
         <v>50</v>
@@ -12239,14 +12245,14 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C80" s="2">
         <f t="shared" si="1"/>
-        <v>100.77499999999999</v>
+        <v>114.12500000000001</v>
       </c>
       <c r="D80">
-        <v>4031</v>
+        <v>4565</v>
       </c>
       <c r="E80">
         <v>42</v>
@@ -12377,14 +12383,14 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="C81" s="2">
         <f t="shared" si="1"/>
-        <v>97.899999999999991</v>
+        <v>109.325</v>
       </c>
       <c r="D81">
-        <v>3916</v>
+        <v>4373</v>
       </c>
       <c r="E81">
         <v>33</v>
@@ -12515,14 +12521,14 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C82" s="2">
         <f t="shared" si="1"/>
-        <v>96.375</v>
+        <v>106.72500000000001</v>
       </c>
       <c r="D82">
-        <v>3855</v>
+        <v>4269</v>
       </c>
       <c r="E82">
         <v>98</v>
@@ -12653,14 +12659,14 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C83" s="2">
         <f t="shared" si="1"/>
-        <v>96.275000000000006</v>
+        <v>103.2</v>
       </c>
       <c r="D83">
-        <v>3851</v>
+        <v>4128</v>
       </c>
       <c r="E83">
         <v>46</v>
@@ -12791,14 +12797,14 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C84" s="2">
         <f t="shared" si="1"/>
-        <v>91.525000000000006</v>
+        <v>102.49999999999999</v>
       </c>
       <c r="D84">
-        <v>3661</v>
+        <v>4100</v>
       </c>
       <c r="E84">
         <v>59</v>
@@ -12929,14 +12935,14 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C85" s="2">
         <f t="shared" si="1"/>
-        <v>68.375</v>
+        <v>102.27500000000001</v>
       </c>
       <c r="D85">
-        <v>2735</v>
+        <v>4091</v>
       </c>
       <c r="E85">
         <v>52</v>
@@ -13071,10 +13077,10 @@
       </c>
       <c r="C86" s="2">
         <f t="shared" si="1"/>
-        <v>62.250000000000007</v>
+        <v>100.62500000000001</v>
       </c>
       <c r="D86">
-        <v>2490</v>
+        <v>4025</v>
       </c>
       <c r="E86">
         <v>80</v>
@@ -13209,10 +13215,10 @@
       </c>
       <c r="C87" s="2">
         <f t="shared" si="1"/>
-        <v>57.499999999999993</v>
+        <v>94.875</v>
       </c>
       <c r="D87">
-        <v>2300</v>
+        <v>3795</v>
       </c>
       <c r="E87">
         <v>61</v>
@@ -13343,14 +13349,14 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="C88" s="2">
         <f t="shared" si="1"/>
-        <v>48.1</v>
+        <v>85.375</v>
       </c>
       <c r="D88">
-        <v>1924</v>
+        <v>3415</v>
       </c>
       <c r="E88">
         <v>62</v>
@@ -13481,14 +13487,14 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2">
         <f t="shared" si="1"/>
-        <v>47.5</v>
+        <v>80.25</v>
       </c>
       <c r="D89">
-        <v>1900</v>
+        <v>3210</v>
       </c>
       <c r="E89">
         <v>76</v>
@@ -13619,14 +13625,14 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C90" s="2">
         <f t="shared" si="1"/>
-        <v>47.375</v>
+        <v>80.100000000000009</v>
       </c>
       <c r="D90">
-        <v>1895</v>
+        <v>3204</v>
       </c>
       <c r="E90">
         <v>52</v>
@@ -13761,10 +13767,10 @@
       </c>
       <c r="C91" s="2">
         <f t="shared" si="1"/>
-        <v>45.75</v>
+        <v>63.5</v>
       </c>
       <c r="D91">
-        <v>1830</v>
+        <v>2540</v>
       </c>
       <c r="E91">
         <v>35</v>
@@ -13895,14 +13901,14 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C92" s="2">
         <f t="shared" si="1"/>
-        <v>44.625</v>
+        <v>54.75</v>
       </c>
       <c r="D92">
-        <v>1785</v>
+        <v>2190</v>
       </c>
       <c r="E92">
         <v>8</v>
@@ -14033,14 +14039,14 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C93" s="2">
         <f t="shared" si="1"/>
-        <v>41.274999999999999</v>
+        <v>48.65</v>
       </c>
       <c r="D93">
-        <v>1651</v>
+        <v>1946</v>
       </c>
       <c r="E93">
         <v>29</v>
@@ -14171,14 +14177,14 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C94" s="2">
         <f t="shared" si="1"/>
-        <v>23.45</v>
+        <v>46.274999999999999</v>
       </c>
       <c r="D94">
-        <v>938</v>
+        <v>1851</v>
       </c>
       <c r="E94">
         <v>61</v>
@@ -14309,14 +14315,14 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C95" s="2">
         <f t="shared" si="1"/>
-        <v>22.175000000000001</v>
+        <v>44.625</v>
       </c>
       <c r="D95">
-        <v>887</v>
+        <v>1785</v>
       </c>
       <c r="E95">
         <v>28</v>
@@ -14447,14 +14453,14 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C96" s="2">
         <f>D96/4000*100</f>
-        <v>0.375</v>
+        <v>33.75</v>
       </c>
       <c r="D96">
-        <v>15</v>
+        <v>1350</v>
       </c>
       <c r="E96">
         <v>3</v>
@@ -14585,14 +14591,14 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C97" s="2">
         <f>D97/4000*100</f>
-        <v>7.4999999999999997E-2</v>
+        <v>23.45</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>938</v>
       </c>
       <c r="E97">
         <v>3</v>
@@ -14722,18 +14728,30 @@
       <c r="A98">
         <v>97</v>
       </c>
+      <c r="B98" t="s">
+        <v>144</v>
+      </c>
       <c r="C98" s="2">
         <f>D98/4000*100</f>
-        <v>0</v>
+        <v>0.375</v>
+      </c>
+      <c r="D98">
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:48">
       <c r="A99">
         <v>98</v>
       </c>
+      <c r="B99" t="s">
+        <v>140</v>
+      </c>
       <c r="C99" s="2">
         <f>D99/4000*100</f>
-        <v>0</v>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:48">
@@ -14760,7 +14778,7 @@
       </c>
       <c r="D102" s="1">
         <f>SUM(D2:D101)</f>
-        <v>765133</v>
+        <v>872590</v>
       </c>
       <c r="E102" s="1">
         <f t="shared" ref="E102:AV102" si="2">SUM(E2:E101)</f>
